--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5515151515151515</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9891304347826086</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.708171206225681</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4940119760479042</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09832579798927242</v>
+        <v>0.114202523565983</v>
       </c>
       <c r="J2" t="n">
-        <v>1293.693155806219</v>
+        <v>1493.773942864905</v>
       </c>
       <c r="K2" t="n">
-        <v>2430381.930400902</v>
+        <v>2932609.128038815</v>
       </c>
       <c r="L2" t="n">
-        <v>1558.968226231985</v>
+        <v>1712.48624170789</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5493169535610778</v>
+        <v>0.4561853841543714</v>
       </c>
     </row>
   </sheetData>
